--- a/data/536/BIDN/SEKI/IDR Interbank Call Money_historical - Monthly.xlsx
+++ b/data/536/BIDN/SEKI/IDR Interbank Call Money_historical - Monthly.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:KY2"/>
+  <dimension ref="A1:LB2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1914,7 +1914,22 @@
       </c>
       <c r="KY1" s="1" t="inlineStr">
         <is>
+          <t>2021-10</t>
+        </is>
+      </c>
+      <c r="KZ1" s="1" t="inlineStr">
+        <is>
           <t>2021-11</t>
+        </is>
+      </c>
+      <c r="LA1" s="1" t="inlineStr">
+        <is>
+          <t>2021-12</t>
+        </is>
+      </c>
+      <c r="LB1" s="1" t="inlineStr">
+        <is>
+          <t>2022-02</t>
         </is>
       </c>
     </row>
@@ -2825,33 +2840,42 @@
         <v>3.05</v>
       </c>
       <c r="KP2" t="n">
-        <v>3.05</v>
+        <v>3.04774</v>
       </c>
       <c r="KQ2" t="n">
-        <v>2.8</v>
+        <v>2.80352</v>
       </c>
       <c r="KR2" t="n">
-        <v>2.79</v>
+        <v>2.79401</v>
       </c>
       <c r="KS2" t="n">
-        <v>2.8</v>
+        <v>2.79646</v>
       </c>
       <c r="KT2" t="n">
-        <v>2.8</v>
+        <v>2.79721</v>
       </c>
       <c r="KU2" t="n">
-        <v>2.8</v>
+        <v>2.79923</v>
       </c>
       <c r="KV2" t="n">
         <v>2.8</v>
       </c>
       <c r="KW2" t="n">
-        <v>2.79</v>
+        <v>2.79054</v>
       </c>
       <c r="KX2" t="n">
-        <v>2.8</v>
+        <v>2.79778</v>
       </c>
       <c r="KY2" t="n">
+        <v>2.79741</v>
+      </c>
+      <c r="KZ2" t="n">
+        <v>2.79059</v>
+      </c>
+      <c r="LA2" t="n">
+        <v>2.784022988505</v>
+      </c>
+      <c r="LB2" t="n">
         <v>2.79</v>
       </c>
     </row>
